--- a/shared_data/HALLMARK_TNFA_SIGNALING_VIA_NFKB_ipaOverlaps_toJoin.xlsx
+++ b/shared_data/HALLMARK_TNFA_SIGNALING_VIA_NFKB_ipaOverlaps_toJoin.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\Desktop\ABRF_GBIRG_OntologyStudy\shared_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\ABRF_GBIRG_OntologyStudy\shared_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFC858B1-1818-4ACA-986F-3D1BFF905162}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C39632-BF9D-4DB1-8B05-6DA3E1CFF1D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hallmark_TNF_ipapath" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hallmark_TNF_ipapath!$A$1:$D$51</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1029,10 +1032,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,351 +1059,351 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
-        <v>3.1622776601683618E-20</v>
+        <v>3.8199999999999999E-68</v>
       </c>
       <c r="D2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1">
-        <v>1.2589254117941619E-19</v>
+        <v>1.22E-67</v>
       </c>
       <c r="D3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
-        <v>1.9952623149688815E-19</v>
+        <v>3.7999999999999998E-66</v>
       </c>
       <c r="D4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
-        <v>1.2589254117941679E-18</v>
+        <v>4.4800000000000002E-66</v>
       </c>
       <c r="D5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
-        <v>1.2589254117941679E-18</v>
+        <v>1.3799999999999999E-63</v>
       </c>
       <c r="D6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
-        <v>2.511886431509556E-18</v>
+        <v>2.8299999999999998E-63</v>
       </c>
       <c r="D7" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1">
-        <v>5.0118723362726963E-18</v>
+        <v>3.2900000000000001E-62</v>
       </c>
       <c r="D8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1">
-        <v>3.1622776601683611E-17</v>
+        <v>4.6699999999999997E-62</v>
       </c>
       <c r="D9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1">
-        <v>3.9810717055349738E-17</v>
+        <v>5.2199999999999997E-62</v>
       </c>
       <c r="D10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
-        <v>9.9999999999999998E-17</v>
+        <v>5.8900000000000001E-61</v>
       </c>
       <c r="D11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1">
-        <v>1.2589254117941617E-16</v>
+        <v>6.7599999999999996E-61</v>
       </c>
       <c r="D12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1">
-        <v>1.5848931924611052E-16</v>
+        <v>9.8899999999999995E-61</v>
       </c>
       <c r="D13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1">
-        <v>2.5118864315095795E-16</v>
+        <v>2.7900000000000001E-60</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1">
-        <v>5.0118723362727077E-16</v>
+        <v>1.0999999999999999E-59</v>
       </c>
       <c r="D15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1">
-        <v>1.2589254117941586E-15</v>
+        <v>6.26E-59</v>
       </c>
       <c r="D16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1">
-        <v>1.2589254117941586E-15</v>
+        <v>7.2799999999999998E-59</v>
       </c>
       <c r="D17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1">
-        <v>1.9952623149688763E-15</v>
+        <v>6.3499999999999997E-58</v>
       </c>
       <c r="D18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1">
-        <v>3.162277660168368E-15</v>
+        <v>2.5099999999999999E-57</v>
       </c>
       <c r="D19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1">
-        <v>6.3095734448019366E-15</v>
+        <v>4.3099999999999997E-57</v>
       </c>
       <c r="D20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1">
-        <v>7.9432823472428124E-15</v>
+        <v>7.8999999999999999E-57</v>
       </c>
       <c r="D21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1">
-        <v>1E-14</v>
+        <v>6.9500000000000002E-55</v>
       </c>
       <c r="D22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1">
-        <v>1.2589254117941644E-14</v>
+        <v>2.9399999999999998E-54</v>
       </c>
       <c r="D23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1">
-        <v>1.2589254117941644E-14</v>
+        <v>6.0500000000000002E-54</v>
       </c>
       <c r="D24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C25" s="1">
-        <v>1.2589254117941644E-14</v>
+        <v>7.9900000000000005E-54</v>
       </c>
       <c r="D25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1">
-        <v>3.1622776601683714E-14</v>
+        <v>9.7000000000000005E-54</v>
       </c>
       <c r="D26" t="s">
         <v>55</v>
@@ -1407,13 +1411,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>3.8199999999999999E-68</v>
+        <v>3.1622776601683618E-20</v>
       </c>
       <c r="D27" t="s">
         <v>55</v>
@@ -1421,13 +1425,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>1.22E-67</v>
+        <v>1.2589254117941619E-19</v>
       </c>
       <c r="D28" t="s">
         <v>55</v>
@@ -1435,13 +1439,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C29" s="1">
-        <v>3.7999999999999998E-66</v>
+        <v>1.9952623149688815E-19</v>
       </c>
       <c r="D29" t="s">
         <v>55</v>
@@ -1449,13 +1453,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>4.4800000000000002E-66</v>
+        <v>1.2589254117941679E-18</v>
       </c>
       <c r="D30" t="s">
         <v>55</v>
@@ -1463,13 +1467,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C31" s="1">
-        <v>1.3799999999999999E-63</v>
+        <v>1.2589254117941679E-18</v>
       </c>
       <c r="D31" t="s">
         <v>55</v>
@@ -1477,13 +1481,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C32" s="1">
-        <v>2.8299999999999998E-63</v>
+        <v>2.511886431509556E-18</v>
       </c>
       <c r="D32" t="s">
         <v>55</v>
@@ -1491,13 +1495,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C33" s="1">
-        <v>3.2900000000000001E-62</v>
+        <v>5.0118723362726963E-18</v>
       </c>
       <c r="D33" t="s">
         <v>55</v>
@@ -1505,13 +1509,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="C34" s="1">
-        <v>4.6699999999999997E-62</v>
+        <v>3.1622776601683611E-17</v>
       </c>
       <c r="D34" t="s">
         <v>55</v>
@@ -1519,13 +1523,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C35" s="1">
-        <v>5.2199999999999997E-62</v>
+        <v>3.9810717055349738E-17</v>
       </c>
       <c r="D35" t="s">
         <v>55</v>
@@ -1533,13 +1537,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C36" s="1">
-        <v>5.8900000000000001E-61</v>
+        <v>9.9999999999999998E-17</v>
       </c>
       <c r="D36" t="s">
         <v>55</v>
@@ -1547,13 +1551,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C37" s="1">
-        <v>6.7599999999999996E-61</v>
+        <v>1.2589254117941617E-16</v>
       </c>
       <c r="D37" t="s">
         <v>55</v>
@@ -1561,13 +1565,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C38" s="1">
-        <v>9.8899999999999995E-61</v>
+        <v>1.5848931924611052E-16</v>
       </c>
       <c r="D38" t="s">
         <v>55</v>
@@ -1575,13 +1579,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C39" s="1">
-        <v>2.7900000000000001E-60</v>
+        <v>2.5118864315095795E-16</v>
       </c>
       <c r="D39" t="s">
         <v>55</v>
@@ -1589,13 +1593,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C40" s="1">
-        <v>1.0999999999999999E-59</v>
+        <v>5.0118723362727077E-16</v>
       </c>
       <c r="D40" t="s">
         <v>55</v>
@@ -1603,13 +1607,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C41" s="1">
-        <v>6.26E-59</v>
+        <v>1.2589254117941586E-15</v>
       </c>
       <c r="D41" t="s">
         <v>55</v>
@@ -1617,13 +1621,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C42" s="1">
-        <v>7.2799999999999998E-59</v>
+        <v>1.2589254117941586E-15</v>
       </c>
       <c r="D42" t="s">
         <v>55</v>
@@ -1631,13 +1635,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C43" s="1">
-        <v>6.3499999999999997E-58</v>
+        <v>1.9952623149688763E-15</v>
       </c>
       <c r="D43" t="s">
         <v>55</v>
@@ -1645,13 +1649,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="C44" s="1">
-        <v>2.5099999999999999E-57</v>
+        <v>3.162277660168368E-15</v>
       </c>
       <c r="D44" t="s">
         <v>55</v>
@@ -1659,13 +1663,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C45" s="1">
-        <v>4.3099999999999997E-57</v>
+        <v>6.3095734448019366E-15</v>
       </c>
       <c r="D45" t="s">
         <v>55</v>
@@ -1673,13 +1677,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C46" s="1">
-        <v>7.8999999999999999E-57</v>
+        <v>7.9432823472428124E-15</v>
       </c>
       <c r="D46" t="s">
         <v>55</v>
@@ -1687,13 +1691,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C47" s="1">
-        <v>6.9500000000000002E-55</v>
+        <v>1E-14</v>
       </c>
       <c r="D47" t="s">
         <v>55</v>
@@ -1701,13 +1705,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C48" s="1">
-        <v>2.9399999999999998E-54</v>
+        <v>1.2589254117941644E-14</v>
       </c>
       <c r="D48" t="s">
         <v>55</v>
@@ -1715,13 +1719,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C49" s="1">
-        <v>6.0500000000000002E-54</v>
+        <v>1.2589254117941644E-14</v>
       </c>
       <c r="D49" t="s">
         <v>55</v>
@@ -1729,13 +1733,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C50" s="1">
-        <v>7.9900000000000005E-54</v>
+        <v>1.2589254117941644E-14</v>
       </c>
       <c r="D50" t="s">
         <v>55</v>
@@ -1743,21 +1747,28 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C51" s="1">
-        <v>9.7000000000000005E-54</v>
+        <v>3.1622776601683714E-14</v>
       </c>
       <c r="D51" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D51" xr:uid="{DA188467-4D64-4E18-9C77-4DE46E7ED0B9}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Canonical Pathways"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:D51">
-    <sortCondition ref="D1"/>
+    <sortCondition ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shared_data/HALLMARK_TNFA_SIGNALING_VIA_NFKB_ipaOverlaps_toJoin.xlsx
+++ b/shared_data/HALLMARK_TNFA_SIGNALING_VIA_NFKB_ipaOverlaps_toJoin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlie\ABRF_GBIRG_OntologyStudy\shared_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C39632-BF9D-4DB1-8B05-6DA3E1CFF1D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1D9328-BA87-4BF6-AE2D-12AA087DB131}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16710" windowHeight="8610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1032,11 +1032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,7 +1058,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1073,7 +1072,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1087,7 +1086,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1101,7 +1100,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1115,7 +1114,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1129,7 +1128,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1143,7 +1142,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1157,7 +1156,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1171,7 +1170,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1185,7 +1184,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -1199,7 +1198,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1213,7 +1212,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1227,7 +1226,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1241,7 +1240,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1255,7 +1254,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1269,7 +1268,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1283,7 +1282,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1297,7 +1296,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -1311,7 +1310,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1325,7 +1324,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1339,7 +1338,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1353,7 +1352,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1367,7 +1366,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1381,7 +1380,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1395,7 +1394,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1760,13 +1759,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D51" xr:uid="{DA188467-4D64-4E18-9C77-4DE46E7ED0B9}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Canonical Pathways"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D51" xr:uid="{DA188467-4D64-4E18-9C77-4DE46E7ED0B9}"/>
   <sortState ref="A2:D51">
     <sortCondition ref="C1"/>
   </sortState>
